--- a/input.xlsx
+++ b/input.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaintilhac/Research/modelling/percolation-diffusion_release/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaintilhac/Documents/work/percolation-diffusion/release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B390F01-BF64-F145-8D21-F9FD83429B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA8A17A-D6A0-A248-B75D-CB00DBFCC11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{B2B1E4F7-C0F7-CB4E-8A7B-E9F04C7020F4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{AA7F47B4-C571-A240-B76D-30A298D8E1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>solid</t>
   </si>
@@ -48,9 +48,33 @@
     <t>N</t>
   </si>
   <si>
+    <t>Kd_oli</t>
+  </si>
+  <si>
     <t>Kd_cpx</t>
   </si>
   <si>
+    <t>Kd_opx</t>
+  </si>
+  <si>
+    <t>Kd_grt</t>
+  </si>
+  <si>
+    <t>Kd_spl</t>
+  </si>
+  <si>
+    <t>Kd_plg</t>
+  </si>
+  <si>
+    <t>D_oli</t>
+  </si>
+  <si>
+    <t>E_oli</t>
+  </si>
+  <si>
+    <t>V_oli</t>
+  </si>
+  <si>
     <t>D_cpx</t>
   </si>
   <si>
@@ -58,6 +82,42 @@
   </si>
   <si>
     <t>V_cpx</t>
+  </si>
+  <si>
+    <t>D_opx</t>
+  </si>
+  <si>
+    <t>E_opx</t>
+  </si>
+  <si>
+    <t>V_opx</t>
+  </si>
+  <si>
+    <t>D_grt</t>
+  </si>
+  <si>
+    <t>E_grt</t>
+  </si>
+  <si>
+    <t>V_grt</t>
+  </si>
+  <si>
+    <t>D_spl</t>
+  </si>
+  <si>
+    <t>E_spl</t>
+  </si>
+  <si>
+    <t>V_spl</t>
+  </si>
+  <si>
+    <t>D_plg</t>
+  </si>
+  <si>
+    <t>E_plg</t>
+  </si>
+  <si>
+    <t>V_plg</t>
   </si>
   <si>
     <t>La</t>
@@ -106,6 +166,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,8 +199,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,16 +517,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71AD39F-9EDD-6C4A-BAEF-3236141EC9E6}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D50D8-C330-CF49-A30A-2B7CA2E8C32B}">
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -481,369 +552,1269 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.119448</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>223.11748799999998</v>
       </c>
       <c r="D2">
         <v>0.23699999999999999</v>
       </c>
       <c r="E2">
+        <v>3.6500000000000002E-6</v>
+      </c>
+      <c r="F2">
         <v>5.5E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.8800499999999998E-4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3.2720626000000003E-2</v>
+      </c>
+      <c r="K2">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L2">
+        <v>289000</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="G2">
+      <c r="O2">
         <v>519300</v>
       </c>
-      <c r="H2">
+      <c r="P2">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q2" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R2">
+        <v>369000</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U2">
+        <v>287700</v>
+      </c>
+      <c r="V2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W2">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X2">
+        <v>289000</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA2">
+        <v>289000</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.34205400000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>440.00097900000003</v>
       </c>
       <c r="D3">
         <v>0.61299999999999999</v>
       </c>
       <c r="E3">
+        <v>7.3000000000000004E-6</v>
+      </c>
+      <c r="F3">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K3">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L3">
+        <v>289000</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G3">
+      <c r="O3">
         <v>508200</v>
       </c>
-      <c r="H3">
+      <c r="P3">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R3">
+        <v>369000</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U3">
+        <v>287700</v>
+      </c>
+      <c r="V3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W3">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X3">
+        <v>289000</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1.6248077E-2</v>
+      </c>
+      <c r="AA3">
+        <v>289000</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
         <v>5.9299199999999996E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>42.069209599999994</v>
       </c>
       <c r="D4">
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="E4">
+        <v>2.0576699999999999E-5</v>
+      </c>
+      <c r="F4">
         <v>0.1318</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="2">
+        <v>3.0983870000000002E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.6124514999999999E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.2043719999999998E-2</v>
+      </c>
+      <c r="K4">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L4">
+        <v>289000</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>1.083421E-3</v>
       </c>
-      <c r="G4">
+      <c r="O4">
         <v>495702</v>
       </c>
-      <c r="H4">
+      <c r="P4">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q4" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R4">
+        <v>369000</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U4">
+        <v>287700</v>
+      </c>
+      <c r="V4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W4">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X4">
+        <v>289000</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AA4">
+        <v>289000</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.390735</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>130.84275600000001</v>
       </c>
       <c r="D5">
         <v>0.45700000000000002</v>
       </c>
       <c r="E5">
+        <v>5.8E-5</v>
+      </c>
+      <c r="F5">
         <v>0.18779999999999999</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L5">
+        <v>289000</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>5.5400000000000002E-4</v>
       </c>
-      <c r="G5">
+      <c r="O5">
         <v>483900</v>
       </c>
-      <c r="H5">
+      <c r="P5">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q5" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R5">
+        <v>369000</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U5">
+        <v>287700</v>
+      </c>
+      <c r="V5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W5">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X5">
+        <v>289000</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1.084322E-3</v>
+      </c>
+      <c r="AA5">
+        <v>289000</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.25840799999999997</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>15.435067999999999</v>
       </c>
       <c r="D6">
         <v>0.14799999999999999</v>
       </c>
       <c r="E6">
+        <v>2.9E-4</v>
+      </c>
+      <c r="F6">
         <v>0.30830000000000002</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="2">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L6">
+        <v>289000</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <v>1.4200000000000001E-4</v>
       </c>
-      <c r="G6">
+      <c r="O6">
         <v>460100</v>
       </c>
-      <c r="H6">
+      <c r="P6">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q6" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R6">
+        <v>369000</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U6">
+        <v>287700</v>
+      </c>
+      <c r="V6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W6">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X6">
+        <v>289000</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>2.21336E-6</v>
+      </c>
+      <c r="AA6">
+        <v>289000</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.14035589999999998</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>3.9573270000000003</v>
       </c>
       <c r="D7">
-        <v>5.6299999999999996E-2</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="E7">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="F7">
         <v>0.36380000000000001</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="2">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="K7">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L7">
+        <v>289000</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>7.7935299999999999E-5</v>
       </c>
-      <c r="G7">
+      <c r="O7">
         <v>449602</v>
       </c>
-      <c r="H7">
+      <c r="P7">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q7" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R7">
+        <v>369000</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U7">
+        <v>287700</v>
+      </c>
+      <c r="V7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W7">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X7">
+        <v>289000</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AA7">
+        <v>289000</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.71102700000000008</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>9.4280230000000014</v>
       </c>
       <c r="D8">
         <v>0.19900000000000001</v>
       </c>
       <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
         <v>0.41689999999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="2">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8.25E-4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="K8">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L8">
+        <v>289000</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>4.0361600000000003E-5</v>
       </c>
-      <c r="G8">
+      <c r="O8">
         <v>438077</v>
       </c>
-      <c r="H8">
+      <c r="P8">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R8">
+        <v>369000</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U8">
+        <v>287700</v>
+      </c>
+      <c r="V8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W8">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X8">
+        <v>289000</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1.2535899999999999E-4</v>
+      </c>
+      <c r="AA8">
+        <v>289000</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.1637496</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.4132789000000001</v>
       </c>
       <c r="D9">
         <v>3.61E-2</v>
       </c>
       <c r="E9">
+        <v>1.7029390000000001E-3</v>
+      </c>
+      <c r="F9">
         <v>0.46450000000000002</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="2">
+        <v>4.1585454000000001E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.367479433</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.11243E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.2296341000000001E-2</v>
+      </c>
+      <c r="K9">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L9">
+        <v>289000</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>2.0902699999999999E-5</v>
       </c>
-      <c r="G9">
+      <c r="O9">
         <v>426552</v>
       </c>
-      <c r="H9">
+      <c r="P9">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R9">
+        <v>369000</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U9">
+        <v>287700</v>
+      </c>
+      <c r="V9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W9">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X9">
+        <v>289000</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>9.43424E-4</v>
+      </c>
+      <c r="AA9">
+        <v>289000</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
         <v>1.3239719999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>8.0747039999999988</v>
       </c>
       <c r="D10">
         <v>0.246</v>
       </c>
       <c r="E10">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F10">
         <v>0.50339999999999996</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="2">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K10">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L10">
+        <v>289000</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>9.9699999999999994E-6</v>
       </c>
-      <c r="G10">
+      <c r="O10">
         <v>413600</v>
       </c>
-      <c r="H10">
+      <c r="P10">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R10">
+        <v>369000</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U10">
+        <v>287700</v>
+      </c>
+      <c r="V10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W10">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X10">
+        <v>289000</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="AA10">
+        <v>289000</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.31793580000000005</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.5627612</v>
       </c>
       <c r="D11">
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="E11">
+        <v>4.3749289999999996E-3</v>
+      </c>
+      <c r="F11">
         <v>0.52939999999999998</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="2">
+        <v>6.6602702999999999E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.8142494560000002</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.1213199999999999E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.3594869999999997E-3</v>
+      </c>
+      <c r="K11">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L11">
+        <v>289000</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
         <v>5.6062300000000002E-6</v>
       </c>
-      <c r="G11">
+      <c r="O11">
         <v>403502</v>
       </c>
-      <c r="H11">
+      <c r="P11">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R11">
+        <v>369000</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U11">
+        <v>287700</v>
+      </c>
+      <c r="V11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W11">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X11">
+        <v>289000</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1.8396333000000001E-2</v>
+      </c>
+      <c r="AA11">
+        <v>289000</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.97055999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>4.1272000000000002</v>
       </c>
       <c r="D12">
         <v>0.16</v>
       </c>
       <c r="E12">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F12">
         <v>0.54369999999999996</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="2">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="K12">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L12">
+        <v>289000</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>2.7300000000000001E-6</v>
       </c>
-      <c r="G12">
+      <c r="O12">
         <v>390900</v>
       </c>
-      <c r="H12">
+      <c r="P12">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R12">
+        <v>369000</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U12">
+        <v>287700</v>
+      </c>
+      <c r="V12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W12">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X12">
+        <v>289000</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>4.7665500999999999E-2</v>
+      </c>
+      <c r="AA12">
+        <v>289000</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
         <v>0.15294240000000001</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.57410209999999995</v>
       </c>
       <c r="D13">
         <v>2.47E-2</v>
       </c>
       <c r="E13">
+        <v>8.9364419999999993E-3</v>
+      </c>
+      <c r="F13">
         <v>0.54820000000000002</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="2">
+        <v>9.1492512999999998E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.8744230430000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.6742350000000001E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4.356604E-3</v>
+      </c>
+      <c r="K13">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L13">
+        <v>289000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>1.5036300000000001E-6</v>
       </c>
-      <c r="G13">
+      <c r="O13">
         <v>380452</v>
       </c>
-      <c r="H13">
+      <c r="P13">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R13">
+        <v>369000</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U13">
+        <v>287700</v>
+      </c>
+      <c r="V13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W13">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X13">
+        <v>289000</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.123502876</v>
+      </c>
+      <c r="AA13">
+        <v>289000</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1">
         <v>1.017198</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>3.402091</v>
       </c>
       <c r="D14">
         <v>0.161</v>
       </c>
       <c r="E14">
+        <v>1.21E-2</v>
+      </c>
+      <c r="F14">
         <v>0.54530000000000001</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="2">
+        <v>0.1036</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="K14">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L14">
+        <v>289000</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>8.8299999999999995E-7</v>
       </c>
-      <c r="G14">
+      <c r="O14">
         <v>371200</v>
       </c>
-      <c r="H14">
+      <c r="P14">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R14">
+        <v>369000</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U14">
+        <v>287700</v>
+      </c>
+      <c r="V14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W14">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X14">
+        <v>289000</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="AA14">
+        <v>289000</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.1554228</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.47246759999999999</v>
       </c>
       <c r="D15">
         <v>2.46E-2</v>
       </c>
       <c r="E15">
+        <v>1.5850808000000001E-2</v>
+      </c>
+      <c r="F15">
         <v>0.5373</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="2">
+        <v>0.111778713</v>
+      </c>
+      <c r="H15" s="2">
+        <v>8.4262362500000005</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5.320104E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="K15">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="L15">
+        <v>289000</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>4.0328100000000002E-7</v>
       </c>
-      <c r="G15">
+      <c r="O15">
         <v>357402</v>
       </c>
-      <c r="H15">
+      <c r="P15">
         <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R15">
+        <v>369000</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="U15">
+        <v>287700</v>
+      </c>
+      <c r="V15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W15">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="X15">
+        <v>289000</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="AA15">
+        <v>289000</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -852,57 +1823,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368D5AF9-31FF-9149-8CB6-D8AC60F9AF86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A1FC0B-104C-F343-8807-F055D03ADFDE}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
